--- a/Resultados/Correlacao/Correlacao_Spearman.xlsx
+++ b/Resultados/Correlacao/Correlacao_Spearman.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Base_Total" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Correlacao_Regiao_centro-oeste" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Correlacao_Regiao_nordeste" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Correlacao_Regiao_norte" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Correlacao_Regiao_sudeste" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Correlacao_Regiao_sul" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Correlacao_Periodo_12 A 18 M" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Correlacao_Periodo_18 A 30 M" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Correlacao_Periodo_3 A 6 M" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Correlacao_Periodo_6 A 12 M" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Correlacao_Safra_2022" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Correlacao_Safra_2023" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Correlacao_Safra_2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Correlacao_Periodo_12 A 18 M" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Correlacao_Periodo_18 A 30 M" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Correlacao_Periodo_3 A 6 M" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Correlacao_Periodo_6 A 12 M" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Correlacao_Safra_2022" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Correlacao_Safra_2023" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Correlacao_Safra_2024" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -949,2044 +944,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlação</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7229414270228022</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>forte</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6686122467477876</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6610313253308413</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6552670847364651</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6478945423534755</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6431100291087944</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6356853761893048</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6229768085046321</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6151318868195121</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6102866646703974</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5627656537066467</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5051454980742979</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4855047862578817</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4615686624290407</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4427589968706325</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4070522565058009</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>vida_util_de_componentes_csat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_operacion_csat</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>costo_de_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlação</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6659513823354885</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6646743138247271</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6620231511606123</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6474962183495732</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6345361311237127</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6147604448590269</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6058788271657249</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6017964362977434</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5721187400205339</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5255963948081401</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.4890414720758021</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.4877513408051234</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>vida_util_de_componentes_csat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_operacion_csat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>costo_de_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlação</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6212893568016532</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6149502515377567</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6059590015937015</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5908700005796381</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5894304997208998</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5875031900456102</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5836137234037643</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5826263914557683</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5767987201306497</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5418348927590863</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5374410769968059</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5073712606490759</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4534595461773699</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4367791486364113</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4258293544695355</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4171075477153047</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>vida_util_de_componentes_csat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_operacion_csat</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>costo_de_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlação</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6823915235852831</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6184515883167621</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4606798471991276</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>vida_util_de_componentes_csat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_operacion_csat</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>costo_de_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3020,7 +977,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6708223191859297</v>
+        <v>0.6609197107718736</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3031,11 +988,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6574389065550678</v>
+        <v>0.653004293539543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3046,11 +1003,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6552170400956968</v>
+        <v>0.6494395652915298</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3061,11 +1018,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6504327109487594</v>
+        <v>0.6388519051302277</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3080,7 +1037,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6476376553147033</v>
+        <v>0.6371171735815825</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3091,11 +1048,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6202584214044459</v>
+        <v>0.612160979194434</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3106,11 +1063,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6187657703770788</v>
+        <v>0.5867460739460377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3121,11 +1078,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6043226372212133</v>
+        <v>0.5848850499113512</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3136,11 +1093,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6008788282238898</v>
+        <v>0.5847022393099238</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3151,11 +1108,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5976785421154357</v>
+        <v>0.5702652413567101</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3166,11 +1123,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5897742087351326</v>
+        <v>0.5663654322183995</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3181,11 +1138,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4832880737788549</v>
+        <v>0.4910635068994728</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3196,11 +1153,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4772900920880197</v>
+        <v>0.4883954925827646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3211,11 +1168,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4684093501677487</v>
+        <v>0.4352749360898032</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3226,11 +1183,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.46686254055041</v>
+        <v>0.4327859681173051</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3245,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4074090501791574</v>
+        <v>0.3871545972186486</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3538,52 +1495,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8078805342708633</v>
+        <v>0.6724792332486518</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>forte</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7180793981720022</v>
+        <v>0.6598698701601831</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>forte</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7033529448583883</v>
+        <v>0.6290516619046338</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forte</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6503153469951342</v>
+        <v>0.6262009444386658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3594,11 +1551,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6452442125639353</v>
+        <v>0.6080234453988518</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3609,11 +1566,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6149485789448266</v>
+        <v>0.597802464705678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3624,11 +1581,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6107891480619511</v>
+        <v>0.5898582553812242</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3639,11 +1596,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5914593796223095</v>
+        <v>0.5738045628806014</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3654,11 +1611,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.579223625386683</v>
+        <v>0.5570198240098118</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3669,11 +1626,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5346737517304285</v>
+        <v>0.5502962052814294</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3684,11 +1641,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5252817759277477</v>
+        <v>0.534040232335525</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3699,11 +1656,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4600829116688813</v>
+        <v>0.5155451195058663</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3714,11 +1671,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4484138734257551</v>
+        <v>0.4982183511673272</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3729,11 +1686,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4453090420060392</v>
+        <v>0.4777412264214996</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3744,11 +1701,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4390806304397304</v>
+        <v>0.4561771268058956</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3759,20 +1716,22 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4278366003312221</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -3785,7 +1744,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -3798,7 +1757,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -3811,7 +1770,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3824,7 +1783,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -3837,7 +1796,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -3850,7 +1809,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -4054,7 +2013,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.642847335764854</v>
+        <v>0.6522741510324226</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4065,11 +2024,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.637569000942668</v>
+        <v>0.6423538589335944</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4080,11 +2039,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6362729134023313</v>
+        <v>0.6423095756710034</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4095,11 +2054,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5706910571584141</v>
+        <v>0.6419032337751056</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4110,11 +2069,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5658760312506448</v>
+        <v>0.6269669270168005</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4125,11 +2084,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5635947423744179</v>
+        <v>0.6125025860720678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4140,11 +2099,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5581897797209631</v>
+        <v>0.6091880673692568</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4155,11 +2114,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5445818043540114</v>
+        <v>0.601891577661583</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4170,11 +2129,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.513013259534862</v>
+        <v>0.5949298192108278</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4185,11 +2144,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5062945937113363</v>
+        <v>0.5902087470929643</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4200,11 +2159,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5054412456061608</v>
+        <v>0.5651822006777023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4215,11 +2174,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4677080996615934</v>
+        <v>0.4850524341522847</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4230,11 +2189,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4623193627788018</v>
+        <v>0.4693525250386086</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4245,11 +2204,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4298090230466624</v>
+        <v>0.4605032467613071</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4260,11 +2219,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4290096951229391</v>
+        <v>0.4552129911869077</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4275,20 +2234,22 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4178816324937792</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -4301,7 +2262,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -4314,7 +2275,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -4327,7 +2288,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -4340,7 +2301,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -4353,7 +2314,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -4366,7 +2327,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -4570,7 +2531,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7129914143174674</v>
+        <v>0.7229414270228022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4581,11 +2542,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6444282209535575</v>
+        <v>0.6686122467477876</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4596,11 +2557,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6412179014048962</v>
+        <v>0.6610313253308413</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4611,11 +2572,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6405916856993796</v>
+        <v>0.6552670847364651</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4626,11 +2587,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6248402338520805</v>
+        <v>0.6478945423534755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4641,11 +2602,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6160253925482387</v>
+        <v>0.6431100291087944</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4656,11 +2617,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6067354921931569</v>
+        <v>0.6356853761893048</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4671,11 +2632,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6037086058146026</v>
+        <v>0.6229768085046321</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4690,7 +2651,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6005290357442062</v>
+        <v>0.6151318868195121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4701,11 +2662,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5856399989020226</v>
+        <v>0.6102866646703974</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4720,7 +2681,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5590114215410046</v>
+        <v>0.5627656537066467</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4731,11 +2692,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5122064584820868</v>
+        <v>0.5051454980742979</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4746,11 +2707,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5009809256594663</v>
+        <v>0.4855047862578817</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4761,11 +2722,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4794860431565621</v>
+        <v>0.4615686624290407</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4776,11 +2737,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4743742311164781</v>
+        <v>0.4427589968706325</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4795,7 +2756,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.391329948057899</v>
+        <v>0.4070522565058009</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5084,11 +3045,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6581664548733637</v>
+        <v>0.6659513823354885</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -5099,11 +3060,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6189724228913975</v>
+        <v>0.6646743138247271</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -5114,11 +3075,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6175559149382358</v>
+        <v>0.6620231511606123</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -5129,11 +3090,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.608346899737336</v>
+        <v>0.6474962183495732</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5148,7 +3109,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5970674879135621</v>
+        <v>0.6345361311237127</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5163,7 +3124,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5924642803978328</v>
+        <v>0.6147604448590269</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5174,11 +3135,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5820691913801641</v>
+        <v>0.6058788271657249</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -5189,11 +3150,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.567947532859265</v>
+        <v>0.6017964362977434</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5204,11 +3165,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5405000117135367</v>
+        <v>0.5721187400205339</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5219,11 +3180,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5337234683176394</v>
+        <v>0.5255963948081401</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5234,11 +3195,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.510345973394475</v>
+        <v>0.4890414720758021</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5249,11 +3210,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.474183848872618</v>
+        <v>0.4877513408051234</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5264,67 +3225,59 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4541514842964892</v>
-      </c>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.423887010977674</v>
-      </c>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4111960067210869</v>
-      </c>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4007587152591083</v>
-      </c>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -5337,7 +3290,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -5350,7 +3303,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -5363,7 +3316,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -5376,7 +3329,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -5389,7 +3342,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -5402,7 +3355,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>facilidad_de_operacion_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -5415,7 +3368,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -5428,7 +3381,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -5441,7 +3394,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>facilidad_de_operacion_csat</t>
+          <t>costo_de_mantenimiento_csat</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -5454,7 +3407,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -5467,7 +3420,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -5480,7 +3433,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>costo_de_mantenimiento_csat</t>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -5493,7 +3446,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -5506,7 +3459,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -5519,7 +3472,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -5532,7 +3485,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -5545,7 +3498,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -5558,7 +3511,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -5606,7 +3559,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6609197107718736</v>
+        <v>0.6212893568016532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -5617,11 +3570,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.653004293539543</v>
+        <v>0.6149502515377567</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -5636,7 +3589,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6494395652915298</v>
+        <v>0.6059590015937015</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -5647,11 +3600,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6388519051302277</v>
+        <v>0.5908700005796381</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5662,11 +3615,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6371171735815825</v>
+        <v>0.5894304997208998</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5677,11 +3630,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.612160979194434</v>
+        <v>0.5875031900456102</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5692,11 +3645,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5867460739460377</v>
+        <v>0.5836137234037643</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -5711,7 +3664,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5848850499113512</v>
+        <v>0.5826263914557683</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5726,7 +3679,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5847022393099238</v>
+        <v>0.5767987201306497</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5737,11 +3690,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5702652413567101</v>
+        <v>0.5418348927590863</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5752,11 +3705,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5663654322183995</v>
+        <v>0.5374410769968059</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5767,11 +3720,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4910635068994728</v>
+        <v>0.5073712606490759</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5786,7 +3739,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4883954925827646</v>
+        <v>0.4534595461773699</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -5797,11 +3750,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4352749360898032</v>
+        <v>0.4367791486364113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -5812,11 +3765,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4327859681173051</v>
+        <v>0.4258293544695355</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -5827,11 +3780,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3871545972186486</v>
+        <v>0.4171075477153047</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -6124,7 +4077,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6724792332486518</v>
+        <v>0.6823915235852831</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -6135,11 +4088,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6598698701601831</v>
+        <v>0.6184515883167621</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -6150,11 +4103,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6290516619046338</v>
+        <v>0.4606798471991276</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -6165,135 +4118,117 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6262009444386658</v>
-      </c>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6080234453988518</v>
-      </c>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.597802464705678</v>
-      </c>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5898582553812242</v>
-      </c>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5738045628806014</v>
-      </c>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5570198240098118</v>
-      </c>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5502962052814294</v>
-      </c>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.534040232335525</v>
-      </c>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5155451195058663</v>
-      </c>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
@@ -6303,64 +4238,56 @@
           <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.4982183511673272</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4777412264214996</v>
-      </c>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4561771268058956</v>
-      </c>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4278366003312221</v>
-      </c>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -6373,7 +4300,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -6386,7 +4313,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -6399,7 +4326,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -6412,7 +4339,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -6425,7 +4352,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -6438,525 +4365,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_operacion_csat</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>costo_de_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlação</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6522741510324226</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6423538589335944</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6423095756710034</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6419032337751056</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6269669270168005</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6125025860720678</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6091880673692568</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.601891577661583</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5949298192108278</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5902087470929643</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5651822006777023</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.4850524341522847</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4693525250386086</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4605032467613071</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4552129911869077</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
           <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4178816324937792</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>média</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>vida_util_de_componentes_csat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sem dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>

--- a/Resultados/Correlacao/Correlacao_Spearman.xlsx
+++ b/Resultados/Correlacao/Correlacao_Spearman.xlsx
@@ -8,13 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Base_Total" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Correlacao_Periodo_12 A 18 M" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Correlacao_Periodo_18 A 30 M" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Correlacao_Periodo_3 A 6 M" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Correlacao_Periodo_6 A 12 M" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Correlacao_Safra_2022" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Correlacao_Safra_2023" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Correlacao_Safra_2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Correlacao_Regiao_centro-oeste" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Correlacao_Regiao_nordeste" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Correlacao_Regiao_norte" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Correlacao_Regiao_sudeste" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Correlacao_Regiao_sul" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Correlacao_Periodo_12 A 18 M" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Correlacao_Periodo_18 A 30 M" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Correlacao_Periodo_3 A 6 M" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Correlacao_Periodo_6 A 12 M" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Correlacao_Safra_2022" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Correlacao_Safra_2023" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Correlacao_Safra_2024" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,6 +949,2044 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correlação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7229414270228022</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>forte</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6686122467477876</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6610313253308413</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6552670847364651</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6478945423534755</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6431100291087944</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6356853761893048</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6229768085046321</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6151318868195121</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6102866646703974</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5627656537066467</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5051454980742979</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4855047862578817</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4615686624290407</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4427589968706325</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4070522565058009</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_operacion_csat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>costo_de_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correlação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6659513823354885</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6646743138247271</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6620231511606123</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6474962183495732</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6345361311237127</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6147604448590269</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6058788271657249</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6017964362977434</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5721187400205339</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5255963948081401</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4890414720758021</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4877513408051234</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_operacion_csat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>costo_de_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correlação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6212893568016532</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6149502515377567</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6059590015937015</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5908700005796381</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5894304997208998</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5875031900456102</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5836137234037643</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5826263914557683</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5767987201306497</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5418348927590863</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5374410769968059</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5073712606490759</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4534595461773699</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4367791486364113</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4258293544695355</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4171075477153047</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_operacion_csat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>costo_de_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correlação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6823915235852831</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6184515883167621</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4606798471991276</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_operacion_csat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>costo_de_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -977,7 +3020,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6609197107718736</v>
+        <v>0.6708223191859297</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -988,11 +3031,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.653004293539543</v>
+        <v>0.6574389065550678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1003,11 +3046,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6494395652915298</v>
+        <v>0.6552170400956968</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1018,11 +3061,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6388519051302277</v>
+        <v>0.6504327109487594</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,7 +3080,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6371171735815825</v>
+        <v>0.6476376553147033</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1048,11 +3091,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.612160979194434</v>
+        <v>0.6202584214044459</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1063,11 +3106,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5867460739460377</v>
+        <v>0.6187657703770788</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1078,11 +3121,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5848850499113512</v>
+        <v>0.6043226372212133</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1093,11 +3136,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5847022393099238</v>
+        <v>0.6008788282238898</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1108,11 +3151,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5702652413567101</v>
+        <v>0.5976785421154357</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1123,11 +3166,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5663654322183995</v>
+        <v>0.5897742087351326</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1138,11 +3181,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4910635068994728</v>
+        <v>0.4832880737788549</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1153,11 +3196,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4883954925827646</v>
+        <v>0.4772900920880197</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1168,11 +3211,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4352749360898032</v>
+        <v>0.4684093501677487</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1183,11 +3226,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4327859681173051</v>
+        <v>0.46686254055041</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +3245,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3871545972186486</v>
+        <v>0.4074090501791574</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1495,52 +3538,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6724792332486518</v>
+        <v>0.8078805342708633</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>forte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6598698701601831</v>
+        <v>0.7180793981720022</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>forte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6290516619046338</v>
+        <v>0.7033529448583883</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>forte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6262009444386658</v>
+        <v>0.6503153469951342</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1551,11 +3594,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6080234453988518</v>
+        <v>0.6452442125639353</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1566,11 +3609,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.597802464705678</v>
+        <v>0.6149485789448266</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1581,11 +3624,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5898582553812242</v>
+        <v>0.6107891480619511</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1596,11 +3639,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5738045628806014</v>
+        <v>0.5914593796223095</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1611,11 +3654,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5570198240098118</v>
+        <v>0.579223625386683</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,11 +3669,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5502962052814294</v>
+        <v>0.5346737517304285</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1641,11 +3684,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.534040232335525</v>
+        <v>0.5252817759277477</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1656,11 +3699,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5155451195058663</v>
+        <v>0.4600829116688813</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1671,11 +3714,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4982183511673272</v>
+        <v>0.4484138734257551</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1686,11 +3729,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4777412264214996</v>
+        <v>0.4453090420060392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1701,11 +3744,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4561771268058956</v>
+        <v>0.4390806304397304</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1716,22 +3759,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4278366003312221</v>
-      </c>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1744,7 +3785,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1757,7 +3798,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1770,7 +3811,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1783,7 +3824,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1796,7 +3837,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1809,7 +3850,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2013,7 +4054,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6522741510324226</v>
+        <v>0.642847335764854</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2024,11 +4065,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6423538589335944</v>
+        <v>0.637569000942668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2039,11 +4080,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6423095756710034</v>
+        <v>0.6362729134023313</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2054,11 +4095,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6419032337751056</v>
+        <v>0.5706910571584141</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2069,11 +4110,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6269669270168005</v>
+        <v>0.5658760312506448</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2084,11 +4125,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6125025860720678</v>
+        <v>0.5635947423744179</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2099,11 +4140,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6091880673692568</v>
+        <v>0.5581897797209631</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2114,11 +4155,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.601891577661583</v>
+        <v>0.5445818043540114</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2129,11 +4170,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5949298192108278</v>
+        <v>0.513013259534862</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2144,11 +4185,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5902087470929643</v>
+        <v>0.5062945937113363</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2159,11 +4200,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5651822006777023</v>
+        <v>0.5054412456061608</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2174,11 +4215,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4850524341522847</v>
+        <v>0.4677080996615934</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2189,11 +4230,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4693525250386086</v>
+        <v>0.4623193627788018</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2204,11 +4245,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4605032467613071</v>
+        <v>0.4298090230466624</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2219,11 +4260,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4552129911869077</v>
+        <v>0.4290096951229391</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2234,22 +4275,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4178816324937792</v>
-      </c>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>sem dados</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -2262,7 +4301,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -2275,7 +4314,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2288,7 +4327,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -2301,7 +4340,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -2314,7 +4353,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2327,7 +4366,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2531,7 +4570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7229414270228022</v>
+        <v>0.7129914143174674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2542,11 +4581,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6686122467477876</v>
+        <v>0.6444282209535575</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2557,11 +4596,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6610313253308413</v>
+        <v>0.6412179014048962</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2572,11 +4611,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6552670847364651</v>
+        <v>0.6405916856993796</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2587,11 +4626,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6478945423534755</v>
+        <v>0.6248402338520805</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2602,11 +4641,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6431100291087944</v>
+        <v>0.6160253925482387</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2617,11 +4656,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6356853761893048</v>
+        <v>0.6067354921931569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2632,11 +4671,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6229768085046321</v>
+        <v>0.6037086058146026</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2651,7 +4690,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6151318868195121</v>
+        <v>0.6005290357442062</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2662,11 +4701,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6102866646703974</v>
+        <v>0.5856399989020226</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2681,7 +4720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5627656537066467</v>
+        <v>0.5590114215410046</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2692,11 +4731,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5051454980742979</v>
+        <v>0.5122064584820868</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2707,11 +4746,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4855047862578817</v>
+        <v>0.5009809256594663</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2722,11 +4761,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4615686624290407</v>
+        <v>0.4794860431565621</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2737,11 +4776,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4427589968706325</v>
+        <v>0.4743742311164781</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2756,7 +4795,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4070522565058009</v>
+        <v>0.391329948057899</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3045,11 +5084,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6659513823354885</v>
+        <v>0.6581664548733637</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3060,11 +5099,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6646743138247271</v>
+        <v>0.6189724228913975</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3075,11 +5114,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6620231511606123</v>
+        <v>0.6175559149382358</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3090,11 +5129,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6474962183495732</v>
+        <v>0.608346899737336</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3109,7 +5148,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6345361311237127</v>
+        <v>0.5970674879135621</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3124,7 +5163,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6147604448590269</v>
+        <v>0.5924642803978328</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3135,11 +5174,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6058788271657249</v>
+        <v>0.5820691913801641</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3150,11 +5189,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6017964362977434</v>
+        <v>0.567947532859265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3165,11 +5204,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5721187400205339</v>
+        <v>0.5405000117135367</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3180,11 +5219,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5255963948081401</v>
+        <v>0.5337234683176394</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3195,11 +5234,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4890414720758021</v>
+        <v>0.510345973394475</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3210,11 +5249,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4877513408051234</v>
+        <v>0.474183848872618</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3225,59 +5264,67 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4541514842964892</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.423887010977674</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4111960067210869</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4007587152591083</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -3290,7 +5337,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -3303,7 +5350,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -3316,7 +5363,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3329,7 +5376,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -3342,7 +5389,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -3355,7 +5402,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>facilidad_de_operacion_csat</t>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -3368,7 +5415,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -3381,7 +5428,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -3394,7 +5441,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>costo_de_mantenimiento_csat</t>
+          <t>facilidad_de_operacion_csat</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -3407,7 +5454,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -3420,7 +5467,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -3433,7 +5480,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+          <t>costo_de_mantenimiento_csat</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -3446,7 +5493,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -3459,7 +5506,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -3472,7 +5519,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3485,7 +5532,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -3498,7 +5545,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3511,7 +5558,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3559,7 +5606,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6212893568016532</v>
+        <v>0.6609197107718736</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3570,11 +5617,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6149502515377567</v>
+        <v>0.653004293539543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3589,7 +5636,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6059590015937015</v>
+        <v>0.6494395652915298</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3600,11 +5647,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5908700005796381</v>
+        <v>0.6388519051302277</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3615,11 +5662,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5894304997208998</v>
+        <v>0.6371171735815825</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3630,11 +5677,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5875031900456102</v>
+        <v>0.612160979194434</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3645,11 +5692,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5836137234037643</v>
+        <v>0.5867460739460377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3664,7 +5711,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5826263914557683</v>
+        <v>0.5848850499113512</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3679,7 +5726,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5767987201306497</v>
+        <v>0.5847022393099238</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3690,11 +5737,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5418348927590863</v>
+        <v>0.5702652413567101</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3705,11 +5752,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5374410769968059</v>
+        <v>0.5663654322183995</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3720,11 +5767,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5073712606490759</v>
+        <v>0.4910635068994728</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3739,7 +5786,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4534595461773699</v>
+        <v>0.4883954925827646</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3750,11 +5797,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4367791486364113</v>
+        <v>0.4352749360898032</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3765,11 +5812,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4258293544695355</v>
+        <v>0.4327859681173051</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3780,11 +5827,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4171075477153047</v>
+        <v>0.3871545972186486</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4077,7 +6124,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6823915235852831</v>
+        <v>0.6724792332486518</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4088,11 +6135,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6184515883167621</v>
+        <v>0.6598698701601831</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4103,11 +6150,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4606798471991276</v>
+        <v>0.6290516619046338</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4118,117 +6165,135 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6262009444386658</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6080234453988518</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.597802464705678</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5898582553812242</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5738045628806014</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5570198240098118</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5502962052814294</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.534040232335525</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5155451195058663</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
@@ -4238,56 +6303,64 @@
           <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.4982183511673272</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4777412264214996</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4561771268058956</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4278366003312221</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sem dados</t>
+          <t>média</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>confiabilidade_mecanica_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -4300,7 +6373,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -4313,7 +6386,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>qualidade_de_aplicacao_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -4326,7 +6399,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>qualidade_de_aplicacao_csat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -4339,7 +6412,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -4352,7 +6425,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -4365,7 +6438,525 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_operacion_csat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidad_mecanica_y_fiabilidad_csat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento._csat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>costo_de_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidad_a_las_mas_diversas_condiciones_de_trabajo_csat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_de_uso_del_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correlação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6522741510324226</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6423538589335944</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6423095756710034</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6419032337751056</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6269669270168005</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6125025860720678</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6091880673692568</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.601891577661583</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5949298192108278</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5902087470929643</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5651822006777023</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4850524341522847</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4693525250386086</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4605032467613071</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4552129911869077</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4178816324937792</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_de_aplicacao_csat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_dos_sistemas_de_aplicacao_e_corte_de_secoes_csat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sem dados</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>desempenho_dos_sistemas_de_controle_de_aplicacao_e_corte_de_secoes_csat</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
